--- a/Atributos.xlsx
+++ b/Atributos.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://soysena-my.sharepoint.com/personal/juan_mauna_soy_sena_edu_co/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabrica\Downloads\PRACTICA\ORMsequelize\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{373B7FFC-1EE8-49FF-8BA4-1B8E0D1A84C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7AFA86-CFF4-411C-9E5A-A34E0FC91A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B31ECC26-3786-490A-9D22-1E7D6DF08FC8}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{B31ECC26-3786-490A-9D22-1E7D6DF08FC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,31 +36,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
   <si>
     <t>precio</t>
   </si>
   <si>
-    <t>personId</t>
-  </si>
-  <si>
-    <t>type_productId</t>
+    <t xml:space="preserve"> id_person</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>fecha_compra</t>
+  </si>
+  <si>
+    <t>identificacion</t>
+  </si>
+  <si>
+    <t>name_product</t>
+  </si>
+  <si>
+    <t>type_product</t>
+  </si>
+  <si>
+    <t>feid</t>
+  </si>
+  <si>
+    <t>juanka</t>
+  </si>
+  <si>
+    <t>ozuna</t>
+  </si>
+  <si>
+    <t>valdiri</t>
+  </si>
+  <si>
+    <t>arjona</t>
+  </si>
+  <si>
+    <t>el pepe</t>
+  </si>
+  <si>
+    <t>el pibe</t>
+  </si>
+  <si>
+    <t>james rodriguez</t>
+  </si>
+  <si>
+    <t>maluma</t>
+  </si>
+  <si>
+    <t>quitero</t>
+  </si>
+  <si>
+    <t>ospina</t>
+  </si>
+  <si>
+    <t>cristiano</t>
+  </si>
+  <si>
+    <t>valvuena</t>
+  </si>
+  <si>
+    <t>azpelicueta</t>
+  </si>
+  <si>
+    <t>bzrap</t>
+  </si>
+  <si>
+    <t>tutu</t>
+  </si>
+  <si>
+    <t>tata</t>
+  </si>
+  <si>
+    <t>de Todio</t>
+  </si>
+  <si>
+    <t>Margaritas</t>
+  </si>
+  <si>
+    <t>Choclitos</t>
+  </si>
+  <si>
+    <t>Arroz Diana</t>
+  </si>
+  <si>
+    <t>Chocolate Humor</t>
+  </si>
+  <si>
+    <t>Espinaca</t>
+  </si>
+  <si>
+    <t>mecato</t>
+  </si>
+  <si>
+    <t>granos</t>
+  </si>
+  <si>
+    <t>culinarios</t>
+  </si>
+  <si>
+    <t>vegetales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -80,8 +179,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -396,23 +497,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F04B20D-90D9-4AFE-B296-15AB5A604437}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="5" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -420,244 +525,360 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3000</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>12234366</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2">
+        <v>3000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>23123123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3">
         <v>4000</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>22223311</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4">
         <v>5000</v>
       </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>55231232</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5">
         <v>6000</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>3000</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55238232</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>3000</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>3000</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52111232</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>3000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>3000</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55239232</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>3000</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>3000</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55231202</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>3000</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>3000</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55251232</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>3000</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>3000</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55237232</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11">
+        <v>3000</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3000</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55231212</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12">
+        <v>3000</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>3000</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55231032</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13">
+        <v>3000</v>
+      </c>
+      <c r="G13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>3000</v>
-      </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55232232</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>3000</v>
+      </c>
+      <c r="G14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>3000</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>54231232</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15">
+        <v>3000</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3000</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>58231232</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>3000</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3000</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10231232</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17">
+        <v>3000</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>3000</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
+        <v>55231932</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <v>3000</v>
+      </c>
+      <c r="G18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D19" s="1"/>
+      <c r="E19" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -666,6 +887,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001A5F5D8D8F60D844A7B1D73B38BC60FC" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="731a7e3ec50f9d0fcc10302ec1224897">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="a43362b8-f459-4910-9a08-e26e046e4376" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5c079cc4702ba2d4824b9bc2b490cd8f" ns3:_="">
     <xsd:import namespace="a43362b8-f459-4910-9a08-e26e046e4376"/>
@@ -797,15 +1027,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -813,6 +1034,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B15F902-1D5B-4079-92A4-C5D44A773F02}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB8CBFF0-8BAE-42B4-BEB6-99F6F1754E4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -826,14 +1055,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5B15F902-1D5B-4079-92A4-C5D44A773F02}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
